--- a/Excel Worksheet.xlsx
+++ b/Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-tuturial\git-practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2DBB4A-1048-4302-A9FB-FA8C6D17F06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB657E2D-48C5-43EF-9DDC-3E60D8D78CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Sergej Trifunovic</t>
   </si>
@@ -45,9 +45,6 @@
     <t>8 godine</t>
   </si>
   <si>
-    <t>9 godine</t>
-  </si>
-  <si>
     <t>10 godine</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>12 godine</t>
   </si>
   <si>
-    <t>13 godine</t>
-  </si>
-  <si>
     <t>14 godine</t>
   </si>
   <si>
@@ -69,10 +63,10 @@
     <t>16 godine</t>
   </si>
   <si>
-    <t>17 godine</t>
-  </si>
-  <si>
     <t>18 godine</t>
+  </si>
+  <si>
+    <t>Serdjo mali</t>
   </si>
 </sst>
 </file>
@@ -399,7 +393,7 @@
   <dimension ref="E9:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,9 +435,6 @@
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>2016</v>
       </c>
@@ -464,13 +455,10 @@
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2016</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.25">
@@ -481,7 +469,7 @@
         <v>2016</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
@@ -492,7 +480,7 @@
         <v>2016</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -503,18 +491,15 @@
         <v>2016</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>2016</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
+      <c r="H18">
+        <v>333333</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -525,7 +510,7 @@
         <v>2016</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -536,7 +521,7 @@
         <v>2016</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -547,7 +532,7 @@
         <v>2016</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
@@ -557,9 +542,6 @@
       <c r="F22">
         <v>2016</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
@@ -569,7 +551,7 @@
         <v>2016</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
